--- a/data/trans_camb/P07_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P07_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>8.003906039240999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.199766586576057</v>
+        <v>7.199766586576059</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>21.87182074844609</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.764883410238327</v>
+        <v>1.408265680165238</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.238220123464367</v>
+        <v>1.575158888654741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9571854443305192</v>
+        <v>0.9987221558593283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.36120847584005</v>
+        <v>14.05757391359925</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.503592239220564</v>
+        <v>7.696477805176166</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.984805342293965</v>
+        <v>7.169352285618706</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.0155853714599</v>
+        <v>9.649349932445524</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.12817433187611</v>
+        <v>6.584068974435739</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.785149299653344</v>
+        <v>6.285982703531423</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.33370802023696</v>
+        <v>15.39166875726664</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.42013423970335</v>
+        <v>15.79171737310676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.72701335515753</v>
+        <v>13.82691766960811</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30.84659701241296</v>
+        <v>30.15103453388969</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>22.24366893578742</v>
+        <v>23.43955283834777</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.62390813764507</v>
+        <v>20.7290085836904</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19.9807346198061</v>
+        <v>20.62151931619577</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.41873666748852</v>
+        <v>17.08960687336985</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.73193989720985</v>
+        <v>15.30455594647165</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4901416119666409</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4408978795136618</v>
+        <v>0.4408978795136619</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.201398670812682</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08884448397439634</v>
+        <v>0.06753381460639027</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.06782298828343822</v>
+        <v>0.07752525020272685</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04867216725617208</v>
+        <v>0.04336565048969408</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6549079647005023</v>
+        <v>0.6652397826476506</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3396540871028381</v>
+        <v>0.336023755622124</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3536041748691358</v>
+        <v>0.3253870518011303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4974052624816151</v>
+        <v>0.4786331064674474</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.298056887882166</v>
+        <v>0.3301100149908665</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2787814850111686</v>
+        <v>0.3033393279945567</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.165379731133428</v>
+        <v>1.19075445806692</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.152390933129532</v>
+        <v>1.21486363304251</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.107477163026864</v>
+        <v>1.099408775843168</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.121447455873144</v>
+        <v>2.175951764428642</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.483569562488064</v>
+        <v>1.626962075440187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.471152934874145</v>
+        <v>1.449607960001709</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.345947406689875</v>
+        <v>1.389758257646694</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.112779077887408</v>
+        <v>1.119873122301257</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.001340982641013</v>
+        <v>1.041548006000946</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-9.755903121615436</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-13.67108059269874</v>
+        <v>-13.67108059269875</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.446201579585967</v>
@@ -878,7 +878,7 @@
         <v>-6.312790366077209</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-8.219876223889788</v>
+        <v>-8.219876223889791</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.24558238209641</v>
+        <v>-5.308485683638565</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.038632658966364</v>
+        <v>-7.96428938205205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.71516910456943</v>
+        <v>-7.308028020465255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.705652804498562</v>
+        <v>-6.725732998482123</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-15.32065065399706</v>
+        <v>-15.21047987180134</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-18.46460874785404</v>
+        <v>-18.93493195607896</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.764616869945345</v>
+        <v>-4.333697948336038</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.54268811434752</v>
+        <v>-10.15163749056261</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.85023078803336</v>
+        <v>-11.94726547119405</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.523125344152026</v>
+        <v>4.933596522364422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.851862389994979</v>
+        <v>1.592848200717675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.322953746646085</v>
+        <v>2.545575098065547</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.564538406288912</v>
+        <v>5.314430276289269</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.17018157830126</v>
+        <v>-4.144200100988598</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-8.321901681336227</v>
+        <v>-8.366819919103753</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.189969181134496</v>
+        <v>3.618382305729344</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.899645630012782</v>
+        <v>-2.796918821527027</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.463820772130579</v>
+        <v>-4.747185865800381</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.3031669469835113</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4248319928547754</v>
+        <v>-0.4248319928547755</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01793125120161003</v>
@@ -983,7 +983,7 @@
         <v>-0.2536885457516077</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3303275294396671</v>
+        <v>-0.3303275294396673</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.257857623336834</v>
+        <v>-0.2572524105727236</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.397547154893976</v>
+        <v>-0.4022093832926695</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3863700027263781</v>
+        <v>-0.3716836396255744</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1937013536357664</v>
+        <v>-0.1963579526693063</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4504536313974667</v>
+        <v>-0.4321197705125575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.524296373148874</v>
+        <v>-0.5246114920056205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.175672687759401</v>
+        <v>-0.1602493018320035</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3901905410365399</v>
+        <v>-0.390642631765964</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4352159667358174</v>
+        <v>-0.4467337875865064</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.314016929645632</v>
+        <v>0.3223623973293853</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1274170133977816</v>
+        <v>0.09606187947786546</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1579815039728924</v>
+        <v>0.1790218742462826</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2020867224710175</v>
+        <v>0.1823643593783185</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1486581340792887</v>
+        <v>-0.1365364351993574</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2877497948995224</v>
+        <v>-0.2914511129825044</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1386134272092908</v>
+        <v>0.1579357699638148</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1326221815954822</v>
+        <v>-0.1211521486412178</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1949429396930495</v>
+        <v>-0.2068780056889775</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.609869771006112</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.032838467658213</v>
+        <v>5.032838467658215</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-8.899877557330679</v>
@@ -1092,7 +1092,7 @@
         <v>-8.906841511008261</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.870219228226942</v>
+        <v>-2.870219228226945</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.266193167438169</v>
+        <v>-4.03952338872765</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.124827540667489</v>
+        <v>-7.012693804653987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.532556683935908</v>
+        <v>-0.1162620269365748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-15.74732016008336</v>
+        <v>-16.41006346781556</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-22.3006359646896</v>
+        <v>-22.46318640099049</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.5285472432022</v>
+        <v>-16.60313366016626</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.495643150920843</v>
+        <v>-8.463955146749782</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-13.22969520960872</v>
+        <v>-13.20175101782196</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.513675092454007</v>
+        <v>-6.966915972353211</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.445228747454317</v>
+        <v>7.45240537286675</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.530807749958254</v>
+        <v>3.565233437200539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.43229587597844</v>
+        <v>10.89739977584227</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.131443882815961</v>
+        <v>-2.224808269574265</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-8.54386692074022</v>
+        <v>-8.557658006929989</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.498693540985499</v>
+        <v>-4.206235708580163</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8947735385830171</v>
+        <v>0.9932276773179824</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.206354617025427</v>
+        <v>-4.751611581551791</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.202440359476798</v>
+        <v>1.524123425522773</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.110539539814152</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3455730756570551</v>
+        <v>0.3455730756570553</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2737149107113472</v>
@@ -1188,7 +1188,7 @@
         <v>-0.487460314223788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3218825685033466</v>
+        <v>-0.3218825685033467</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1641305162287857</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3747612408331787</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.120766370222727</v>
+        <v>-0.1207663702227271</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2530952966451879</v>
+        <v>-0.252184914955969</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.40741154171756</v>
+        <v>-0.4001234759448867</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.0493970704351662</v>
+        <v>-0.0230583649939736</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4438742639438044</v>
+        <v>-0.4474520782695619</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6192997372821412</v>
+        <v>-0.6233128792267881</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4609230561529558</v>
+        <v>-0.4539016162310323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3271521363631135</v>
+        <v>-0.3245208570984838</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5048106783626338</v>
+        <v>-0.503960604706423</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2803708946694908</v>
+        <v>-0.2658345614859648</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5911715593914758</v>
+        <v>0.6107907184564596</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2978526986736272</v>
+        <v>0.3315511799242121</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8870094693103995</v>
+        <v>0.9179802616321595</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.07268915391845412</v>
+        <v>-0.07363701784366894</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2987075277411598</v>
+        <v>-0.3011171694122863</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.159571627984611</v>
+        <v>-0.1431158179156827</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04253928695657368</v>
+        <v>0.04906820247628338</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1925536152256527</v>
+        <v>-0.2203447484306658</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.05780812315666824</v>
+        <v>0.07585543993855205</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.376558320135508</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.600818928688369</v>
+        <v>-1.600818928688363</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.344006551363636</v>
@@ -1306,7 +1306,7 @@
         <v>5.416014610569578</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.176518819834404</v>
+        <v>3.176518819834398</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.831193979528007</v>
+        <v>3.077450251388894</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.165609550726848</v>
+        <v>1.940930909768585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.202468772253988</v>
+        <v>2.055713743783538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3425767764833642</v>
+        <v>0.3098478944065706</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.960163739026377</v>
+        <v>-3.215083939874673</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.079137774148466</v>
+        <v>-7.007856202644145</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.133290382428196</v>
+        <v>3.023621522327153</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.237860966861791</v>
+        <v>1.402982771336373</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.152628975566739</v>
+        <v>-1.330511542056321</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.64076599794438</v>
+        <v>13.84112312096121</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.87421677332886</v>
+        <v>12.68040886034915</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.75800635421337</v>
+        <v>14.08767592035767</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.28534170576753</v>
+        <v>13.8149699707372</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.918297616688378</v>
+        <v>9.420742323205978</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.765904982388821</v>
+        <v>4.482453482225523</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.97233728181848</v>
+        <v>11.44931271444986</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.844471293129695</v>
+        <v>9.852428955906467</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.323397157745315</v>
+        <v>7.40979696255471</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1230629579080322</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.05834387970282467</v>
+        <v>-0.05834387970282447</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3768313653961027</v>
@@ -1411,7 +1411,7 @@
         <v>0.2779033714678831</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1629916743282799</v>
+        <v>0.1629916743282795</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1835555460237263</v>
+        <v>0.2201004918528643</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.156426044040673</v>
+        <v>0.1321319658452143</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1404514502555619</v>
+        <v>0.1363057818707516</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01353821176934632</v>
+        <v>0.008422894468777828</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1019682314219224</v>
+        <v>-0.1103490528843934</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2574758686028243</v>
+        <v>-0.2325501316696114</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1406249270082346</v>
+        <v>0.1335700292281704</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05262794414960394</v>
+        <v>0.06014333847879894</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04902814704041155</v>
+        <v>-0.06001714923310118</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.50213430784192</v>
+        <v>1.565452565999381</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.464924486430865</v>
+        <v>1.396041029992774</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.547939574922177</v>
+        <v>1.503866415839201</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5510655327346748</v>
+        <v>0.5737887000538624</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.404571513764108</v>
+        <v>0.3851845470281274</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1588457063406897</v>
+        <v>0.1842324680713211</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6871501422769321</v>
+        <v>0.6528253368579534</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5590559522769981</v>
+        <v>0.560207740775537</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4217314378052708</v>
+        <v>0.4303201354143771</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.35381267832428</v>
+        <v>-11.97724761693002</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.962350899306865</v>
+        <v>-7.590649704295341</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-18.44342309912834</v>
+        <v>-18.3437360248903</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-14.8801587357214</v>
+        <v>-14.00074297039369</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-18.62393570849408</v>
+        <v>-17.98681863422247</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-25.03572060460046</v>
+        <v>-24.82843411472266</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-10.93907878395882</v>
+        <v>-10.64066425779536</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.71451810202401</v>
+        <v>-10.75032691827908</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-20.15889686105203</v>
+        <v>-19.64267800240179</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.241305988153996</v>
+        <v>3.755894278948806</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.385624412948831</v>
+        <v>7.577812229430295</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.505047935344776</v>
+        <v>-5.349414488245026</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.076412182843776</v>
+        <v>4.572279510103542</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.4642525588882593</v>
+        <v>0.1680628180536828</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-9.726318676881311</v>
+        <v>-9.74834500127594</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.369247683170684</v>
+        <v>1.789137559966758</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.493775913396377</v>
+        <v>1.630764440839277</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-9.515969867810089</v>
+        <v>-9.695958056086544</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.003031038035882948</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5491719341413724</v>
+        <v>-0.5491719341413723</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1315303986338216</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5053232125001048</v>
+        <v>-0.4890444737969338</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2823426167459246</v>
+        <v>-0.307114983204791</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7145975625707437</v>
+        <v>-0.7139588352111714</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.368249798531365</v>
+        <v>-0.3447471083525838</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.462822397473686</v>
+        <v>-0.4432466104167</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6141362842873308</v>
+        <v>-0.5962638610771348</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3401177739690456</v>
+        <v>-0.3415088268249126</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3412441956242633</v>
+        <v>-0.3388067945430607</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6088238110437734</v>
+        <v>-0.6043699102405234</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1873351806107896</v>
+        <v>0.2503676839732567</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4359327384601185</v>
+        <v>0.4618288569975569</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3085213973153955</v>
+        <v>-0.2954881062485185</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1213121295202959</v>
+        <v>0.1583808644533028</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.01998461320299085</v>
+        <v>0.006725803103334648</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.32847671268887</v>
+        <v>-0.310093307811933</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05509200171162346</v>
+        <v>0.07022574244784892</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06097261260212176</v>
+        <v>0.06568277178883668</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3796029842531626</v>
+        <v>-0.3884703453372945</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-9.293372230406344</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.968359590963335</v>
+        <v>-5.968359590963352</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.2153162892735205</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.368851502569833</v>
+        <v>-0.1636000574655813</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.791408023393662</v>
+        <v>-1.209691870325801</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.49435649189776</v>
+        <v>2.770638724839261</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-13.97750684938618</v>
+        <v>-14.05323583993222</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-16.76278699922237</v>
+        <v>-16.88756781494784</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-12.55200615900212</v>
+        <v>-12.39275063489844</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.771106149814333</v>
+        <v>-5.270327967212746</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.525157028948463</v>
+        <v>-7.514706916094277</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.284680212744714</v>
+        <v>-3.074187705154732</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.39644024418857</v>
+        <v>12.72099602098239</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.8642883214683</v>
+        <v>10.81855060714835</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.9815289989138</v>
+        <v>14.77708394699848</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.7955710427785933</v>
+        <v>1.001299463404734</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.105136985901653</v>
+        <v>-1.169231284171928</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.110084345797275</v>
+        <v>1.114283260037163</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.582334964465471</v>
+        <v>5.098175519245197</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.915887913037523</v>
+        <v>2.13857296280658</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.012109254594717</v>
+        <v>6.215762107786791</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.2805903022356783</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1801998004556833</v>
+        <v>-0.1801998004556838</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.009272927081064463</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.02130652488510755</v>
+        <v>-0.0283874719686397</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1227710040113365</v>
+        <v>-0.08067054091820582</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2118625215723836</v>
+        <v>0.1823356026096961</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3700366525438971</v>
+        <v>-0.3863766513506411</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4505574583486554</v>
+        <v>-0.4652574356893718</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.337811789368396</v>
+        <v>-0.3403725070755342</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2155476038102377</v>
+        <v>-0.2046421890767288</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3036463234550124</v>
+        <v>-0.2900442863533981</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1267690744965047</v>
+        <v>-0.1181152299447597</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.248105345630146</v>
+        <v>1.257328730234064</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.08135752706859</v>
+        <v>1.113660644890115</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.45732472709584</v>
+        <v>1.561985450728995</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.03152834123955485</v>
+        <v>0.04527376265863882</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.05829405385467606</v>
+        <v>-0.0397747755629235</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04164486464612523</v>
+        <v>0.03687970292128492</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2175785373933424</v>
+        <v>0.2482872216247531</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1422406114316933</v>
+        <v>0.1066321057274287</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2904003782166777</v>
+        <v>0.3057085734409454</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.2264462750265039</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.9270899616530603</v>
+        <v>0.9270899616530576</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-5.162083445833312</v>
@@ -1939,7 +1939,7 @@
         <v>-4.566441933247406</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-4.268886896760918</v>
+        <v>-4.268886896760921</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-2.147034758501323</v>
@@ -1948,7 +1948,7 @@
         <v>-2.179631936197191</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.642399619455015</v>
+        <v>-1.642399619455018</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.354922681948338</v>
+        <v>-2.762883834371736</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.776380977133431</v>
+        <v>-3.947656701315518</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.996428083838814</v>
+        <v>-3.37280592331624</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-9.869541758844814</v>
+        <v>-10.11206963260662</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.501646635212492</v>
+        <v>-9.159291228488598</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.603864787294766</v>
+        <v>-9.163394085102929</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.299740764479783</v>
+        <v>-5.26113298607154</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.262252386757106</v>
+        <v>-5.472721161917351</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.483240062643612</v>
+        <v>-4.793782288443566</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.985052163374536</v>
+        <v>5.080732330718575</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.033045732901379</v>
+        <v>4.603130157750731</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.805646489140079</v>
+        <v>4.951011365760307</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.5809879053717648</v>
+        <v>-0.09354696930291237</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.4690092149169865</v>
+        <v>0.356560074400276</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.099786390380999</v>
+        <v>0.1594456006898317</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.243099333440542</v>
+        <v>1.172916999458731</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.214905498811707</v>
+        <v>0.9786373375547666</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.688346295163659</v>
+        <v>1.304637890353752</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.01619477863288263</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.06630277623238305</v>
+        <v>0.06630277623238286</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.1817363874340066</v>
@@ -2044,7 +2044,7 @@
         <v>-0.1607662233831976</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.150290496293296</v>
+        <v>-0.1502904962932961</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1006726410418868</v>
@@ -2053,7 +2053,7 @@
         <v>-0.1022010950905047</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.07701072685574051</v>
+        <v>-0.07701072685574065</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2052185944066189</v>
+        <v>-0.1793813300348803</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2388989496263707</v>
+        <v>-0.2471639963986489</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.189623994136929</v>
+        <v>-0.2033724367113514</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3247857970120324</v>
+        <v>-0.3294850449999738</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3032892936956215</v>
+        <v>-0.2983143923979744</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.277198216744002</v>
+        <v>-0.2933866426022819</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2298204195884064</v>
+        <v>-0.2312480165305717</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.231287450962226</v>
+        <v>-0.2404552825664471</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1963919037278259</v>
+        <v>-0.2084664978085896</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4302467483967872</v>
+        <v>0.4258919307896195</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.343777011889105</v>
+        <v>0.3923036517132789</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3908041291854512</v>
+        <v>0.4081042076256944</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.02701633697269211</v>
+        <v>-0.007238326212880409</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01929604979828955</v>
+        <v>0.01525658235687299</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.004107941252855913</v>
+        <v>0.009245879945574496</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0650743988183916</v>
+        <v>0.06056114761604147</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.06275301515034809</v>
+        <v>0.05010482478714116</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.08746995209194407</v>
+        <v>0.06601959724262127</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.334156797572707</v>
+        <v>-8.667549643692276</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.068432928315156</v>
+        <v>-9.203986905110469</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.647311773386447</v>
+        <v>-3.850974452635845</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-11.03268047828187</v>
+        <v>-11.25273188043102</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-9.457958288057718</v>
+        <v>-9.405373525305526</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.409764404410907</v>
+        <v>-3.91814166507049</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-8.84053376456967</v>
+        <v>-8.961925449936079</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-8.306439259367696</v>
+        <v>-8.102486553347408</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.75905930779149</v>
+        <v>-2.592355056985576</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.073187117005654</v>
+        <v>-1.103417901832834</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.660585857857459</v>
+        <v>-1.530116228838146</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.754092478484135</v>
+        <v>3.8937442177834</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.855550786559588</v>
+        <v>-2.429031325432379</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.7135805594731174</v>
+        <v>-0.9365277800649888</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.529579240056441</v>
+        <v>4.705449047609664</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-3.01488971024571</v>
+        <v>-3.186727764279371</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-2.523532685888071</v>
+        <v>-2.508237933374404</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.108776602595648</v>
+        <v>2.876291514901546</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4303792809335347</v>
+        <v>-0.4381678624146721</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4672479364884054</v>
+        <v>-0.4748161076917763</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1921286165524868</v>
+        <v>-0.2003243879292738</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4005524037081357</v>
+        <v>-0.3993920767405476</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3436499564972096</v>
+        <v>-0.3404815641810877</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1226438902581522</v>
+        <v>-0.1405658524972798</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3818639512476585</v>
+        <v>-0.3853570990840048</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3557035694819309</v>
+        <v>-0.3529379299484723</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1163081747400248</v>
+        <v>-0.1091282646738748</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.06505236645967956</v>
+        <v>-0.06580390508449618</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1079822376986133</v>
+        <v>-0.09952453870305615</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2386369930942726</v>
+        <v>0.2397691992976944</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1236451629823672</v>
+        <v>-0.09912194258205127</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.03060970499955025</v>
+        <v>-0.04007360555027653</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1948533136236804</v>
+        <v>0.2046210097472146</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1472563513016296</v>
+        <v>-0.1587526828311682</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.125375591064142</v>
+        <v>-0.1284795155997584</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.154649720677438</v>
+        <v>0.1431040903798846</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>0.05175881405700411</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1.709823680084818</v>
+        <v>1.709823680084821</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-1.94945828000937</v>
@@ -2367,7 +2367,7 @@
         <v>-4.759394366035183</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-4.319545488270346</v>
+        <v>-4.31954548827034</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.4673789251125937</v>
@@ -2376,7 +2376,7 @@
         <v>-2.366646810336712</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-1.308629538023842</v>
+        <v>-1.308629538023845</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.7166099978352141</v>
+        <v>-0.7569430966741737</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.718929588290972</v>
+        <v>-1.701230864888199</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.03072603210291849</v>
+        <v>-0.1350198463315169</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.966693163806983</v>
+        <v>-4.059595905892801</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-7.011605010673039</v>
+        <v>-7.007614960144497</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-6.441635638579809</v>
+        <v>-6.219359263563091</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.981579169836898</v>
+        <v>-1.776003149254001</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.88859790350985</v>
+        <v>-3.764027985446768</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-2.665229559971242</v>
+        <v>-2.716932707653914</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.869942251608871</v>
+        <v>2.947186857841736</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.857358421103161</v>
+        <v>1.750774893379327</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.595022482757685</v>
+        <v>3.447127029763113</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.4673868083883884</v>
+        <v>0.2695084010165609</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-2.605083071449403</v>
+        <v>-2.796015866045443</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-2.368337736629536</v>
+        <v>-2.39180818561983</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.9778773219415646</v>
+        <v>1.104235459713677</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.9952226023618015</v>
+        <v>-0.9175618182152161</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.04454520230127276</v>
+        <v>0.055339649673299</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.003308574649746111</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.1092969262633</v>
+        <v>0.1092969262633002</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.0680739831972471</v>
@@ -2472,7 +2472,7 @@
         <v>-0.1661953658741516</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.1508360912380473</v>
+        <v>-0.1508360912380471</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.02101347187693403</v>
@@ -2481,7 +2481,7 @@
         <v>-0.1064050249584223</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.05883630715262692</v>
+        <v>-0.05883630715262704</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.04424857666711463</v>
+        <v>-0.04500096255539451</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1030303025093982</v>
+        <v>-0.1029888445587405</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.002599777736817063</v>
+        <v>-0.008096759263338225</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1325681044840304</v>
+        <v>-0.1351579000020267</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2347904428554431</v>
+        <v>-0.2345399933232841</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2137711437271227</v>
+        <v>-0.207279850458578</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.08567614247988227</v>
+        <v>-0.07885019087610064</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.173124130945354</v>
+        <v>-0.1639364049203207</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1150684048279162</v>
+        <v>-0.1173795881579093</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1942572455564809</v>
+        <v>0.2062938820766035</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1226192205833177</v>
+        <v>0.1185684776671119</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2461334912127106</v>
+        <v>0.2283832069371265</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.01813682811163293</v>
+        <v>0.01096504875067406</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.09447715357387318</v>
+        <v>-0.1009887058541381</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.08672788235093337</v>
+        <v>-0.08826855757036842</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.04568061670740566</v>
+        <v>0.05166412540188241</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.04963646865434283</v>
+        <v>-0.04301552353365189</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.002119648776030169</v>
+        <v>0.003152075073176832</v>
       </c>
     </row>
     <row r="58">
